--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\作业\数据库实践\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F08C10F-F916-4ABE-B82C-450C8645D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3458A4-5742-44F2-A2F9-E6A85BC4CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据项定义" sheetId="1" r:id="rId1"/>
     <sheet name="数据结构的定义" sheetId="2" r:id="rId2"/>
     <sheet name="数据流的描述" sheetId="3" r:id="rId3"/>
+    <sheet name="处理逻辑的描述" sheetId="4" r:id="rId4"/>
+    <sheet name="数据存储的描述" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="353">
   <si>
     <t>数据项编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,14 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SevenSem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EightSem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClassID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,14 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第七学期是否就读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八学期是否就读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前学期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -920,10 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StuID, ClassID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReportTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,11 +918,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">StuID, StutName, StuAge, S tuBirthday, StuImg, StuPhone, StuAddress, StuPeriod, StuClass, Semester, InSchool, FirstSem, SecondSem, ThirdSem, FourSem, FiveSem, SixSem, SevenSem, EightSem
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClassGradeTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1001,6 +978,445 @@
   </si>
   <si>
     <t>PutGradeTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理逻辑编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理逻辑名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的数据流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出的数据流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出存储的组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllGradeTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1.3</t>
+  </si>
+  <si>
+    <t>P1.4</t>
+  </si>
+  <si>
+    <t>P1.5</t>
+  </si>
+  <si>
+    <t>P1.6</t>
+  </si>
+  <si>
+    <t>学生档案登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级档案登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级档案修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级档案查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2.2</t>
+  </si>
+  <si>
+    <t>P2.3</t>
+  </si>
+  <si>
+    <t>P3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3.2</t>
+  </si>
+  <si>
+    <t>P3.3</t>
+  </si>
+  <si>
+    <t>成绩登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退学学生统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退学登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F11报道单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F25退学学生报道表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F26退学学生信息表 F27未报道学生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F22学生就读历史表 F25退学学生报道表 F27未报道学生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F26退学学生信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F28退学学生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1学生档案登记表 F23学生班级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4修改学生档案表 F24学生班级修改表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2班级档案登记表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3 修改班级登记表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F14班级信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F18学生档案表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F16学生基本信息存档表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F17修改学生档案信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F13班级信息存档表 F23学生班级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F15修改班级档案信息表 F24学生班级修改表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5班级信息查询表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F12学生档案查询表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7学生成绩登记表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9学生成绩修改表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F21学生成绩查询表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F19学生成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F20学生成绩修改表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6班级成绩查询表 F8科目成绩统计表 F10个人成绩查询表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1.1 P1.2 P1.6 P3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1.3 P1.4 P1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体学生成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2.1 P2.2 P2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class,  StuClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将档案管理员登记的学生档案或者学生班级信息存入学生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案管理员修改学生档案，或档案管理员修改学生班级信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StuID, StutName, StuAge, S tuBirthday, StuImg, StuPhone, StuAddress, StuPeriod, StuClass, Semester, InSchool, FirstSem, SecondSem, ThirdSem, FourSem, FiveSem, SixSem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案管理员登记班级档案，将班级档案存入班级档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StuID, ClassID, Semster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案管理员修改学生档案，将班级信息存入班级档案，将学生班级信息交予P1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将选择的班级档案从班级档案从取出，供班主任查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将选择的学生档案从学生档案从取出，供班主任查看</t>
+  </si>
+  <si>
+    <t>将老师登记的成绩测存入全体学生成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将老师修改的成绩存入全体学生成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将学生成绩根据不同的查询人制作不同的视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将学生分为退学、未报到、正常三张表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计所有退学学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改所有退学学生的档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储所有学生的档案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student, StuClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储所有班级的档案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放所有学生的成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放所有退学学生的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300次/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记学生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改学生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记班级档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改班级档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询班级档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询学生档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师登记成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师修改成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生入学登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计退学学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生退学处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A50:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1796,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A66" si="0">CONCATENATE("Dl-",  ROW()-1)</f>
+        <f t="shared" ref="A2:A49" si="0">CONCATENATE("Dl-",  ROW()-1)</f>
         <v>Dl-1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1447,19 +1863,19 @@
         <v>Dl-4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,10 +1944,10 @@
         <v>Dl-8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1558,7 +1974,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1573,10 +1989,10 @@
         <v>Dl-10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1585,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +2013,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1618,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1639,7 +2055,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1660,7 +2076,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -1681,7 +2097,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1702,7 +2118,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -1720,10 +2136,13 @@
         <v>Dl-17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>214</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1731,9 +2150,6 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
@@ -1741,16 +2157,16 @@
         <v>Dl-18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>39</v>
@@ -1762,19 +2178,19 @@
         <v>Dl-19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1783,19 +2199,19 @@
         <v>Dl-20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,19 +2220,19 @@
         <v>Dl-21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1825,13 +2241,13 @@
         <v>Dl-22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -1851,14 +2267,14 @@
       <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,13 +2289,16 @@
         <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1894,13 +2313,16 @@
         <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,16 +2337,13 @@
         <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1">
         <v>10</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,7 +2358,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
@@ -1947,9 +2366,6 @@
       <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
@@ -1963,7 +2379,7 @@
         <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -1984,7 +2400,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
@@ -1999,13 +2415,13 @@
         <v>Dl-30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
@@ -2020,13 +2436,13 @@
         <v>Dl-31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>9</v>
@@ -2041,13 +2457,13 @@
         <v>Dl-32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
@@ -2062,13 +2478,13 @@
         <v>Dl-33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
@@ -2089,7 +2505,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
@@ -2104,19 +2520,19 @@
         <v>Dl-35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,19 +2541,19 @@
         <v>Dl-36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,19 +2562,19 @@
         <v>Dl-37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1">
-        <v>20</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,10 +2583,10 @@
         <v>Dl-38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
@@ -2179,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2188,19 +2604,19 @@
         <v>Dl-39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,7 +2625,7 @@
         <v>Dl-40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>100</v>
@@ -2221,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,7 +2646,7 @@
         <v>Dl-41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>101</v>
@@ -2242,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2284,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2305,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2326,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2377,10 +2793,13 @@
         <v>Dl-48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>10</v>
@@ -2389,353 +2808,160 @@
         <v>5</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="F50"/>
+      <c r="G50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="F51"/>
+      <c r="G51"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-51</v>
-      </c>
+      <c r="G52"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-52</v>
-      </c>
+      <c r="G53"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-53</v>
-      </c>
+      <c r="G54"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-54</v>
-      </c>
+      <c r="G55"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-55</v>
-      </c>
+      <c r="G56"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-56</v>
-      </c>
+      <c r="G57"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-57</v>
-      </c>
+      <c r="G58"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-58</v>
-      </c>
+      <c r="G59"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-59</v>
-      </c>
+      <c r="G60"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-60</v>
-      </c>
+      <c r="G61"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-61</v>
-      </c>
+      <c r="G62"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-62</v>
-      </c>
+      <c r="G63"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dl-65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="str">
-        <f t="shared" ref="A67:A101" si="1">CONCATENATE("Dl-",  ROW()-1)</f>
-        <v>Dl-66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dl-100</v>
-      </c>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2746,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3338A865-56AB-4A83-8B7D-649655AEB20E}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2763,19 +2989,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>CONCATENATE("DS-",  ROW()-1)</f>
         <v>DS-1</v>
@@ -2784,25 +3010,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>230</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A16" si="0">CONCATENATE("DS-",  ROW()-1)</f>
+        <f t="shared" ref="A3:A12" si="0">CONCATENATE("DS-",  ROW()-1)</f>
         <v>DS-2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,13 +3037,13 @@
         <v>DS-3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,13 +3052,13 @@
         <v>DS-4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,13 +3067,13 @@
         <v>DS-5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,10 +3085,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2871,13 +3097,13 @@
         <v>DS-7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,13 +3112,13 @@
         <v>DS-8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,13 +3127,13 @@
         <v>DS-9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,13 +3142,13 @@
         <v>DS-10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2931,37 +3157,13 @@
         <v>DS-11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DS-12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DS-13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DS-14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DS-15</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2975,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1B8ED6-378E-4418-8BAE-4C5FA426A5F7}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2994,28 +3196,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3024,19 +3226,25 @@
         <v>F1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3045,19 +3253,25 @@
         <v>F2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>319</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3066,20 +3280,26 @@
         <v>F3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
@@ -3087,19 +3307,25 @@
         <v>F4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>120</v>
+        <v>239</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3108,19 +3334,25 @@
         <v>F5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,19 +3361,25 @@
         <v>F6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3150,19 +3388,25 @@
         <v>F7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3171,19 +3415,25 @@
         <v>F8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3192,19 +3442,25 @@
         <v>F9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,19 +3469,25 @@
         <v>F10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,19 +3496,25 @@
         <v>F11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3255,20 +3523,26 @@
         <v>F12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
@@ -3276,19 +3550,25 @@
         <v>F13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,16 +3577,25 @@
         <v>F14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>167</v>
+      <c r="F15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3315,250 +3604,812 @@
         <v>F15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>F28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77B9E74-C386-4F18-85DA-CC90F3815098}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39706662-DE88-4C4A-965B-55A329806B69}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>F28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>179</v>
+      <c r="C5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\作业\数据库实践\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E7F011-2CA6-48DE-A892-91D4B883516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760360F7-41FC-45B6-84BC-5DC0407E8351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="-11472" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3564" yWindow="-12708" windowWidth="20376" windowHeight="12816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据项定义" sheetId="1" r:id="rId1"/>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:G42"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3110,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3338A865-56AB-4A83-8B7D-649655AEB20E}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3348,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1B8ED6-378E-4418-8BAE-4C5FA426A5F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4184,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77B9E74-C386-4F18-85DA-CC90F3815098}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4533,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39706662-DE88-4C4A-965B-55A329806B69}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
